--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -94,24 +94,30 @@
     <t xml:space="preserve">z0bug.invoice_PY_2</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.res_partner_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contratto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1/2021/0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">####-&lt;#-99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank_company_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.res_partner_2</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.invoice_Z0_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1/2021/0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">####-&lt;#-99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.bank_company_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_Z0_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">SO123</t>
   </si>
   <si>
@@ -224,9 +230,6 @@
   </si>
   <si>
     <t xml:space="preserve">z0bug.invoice_ZI_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.res_partner_3</t>
   </si>
   <si>
     <t xml:space="preserve">XE125432</t>
@@ -419,7 +422,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -531,10 +534,10 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>17</v>
@@ -563,20 +566,20 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>18</v>
@@ -600,25 +603,25 @@
         <v>22</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>18</v>
@@ -642,25 +645,25 @@
         <v>22</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>18</v>
@@ -678,31 +681,31 @@
         <v>20</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>18</v>
@@ -720,21 +723,21 @@
         <v>20</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -744,7 +747,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>18</v>
@@ -770,20 +773,20 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>18</v>
@@ -801,7 +804,7 @@
         <v>20</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>22</v>
@@ -809,20 +812,20 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>18</v>
@@ -834,7 +837,7 @@
         <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>20</v>
@@ -848,20 +851,20 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>18</v>
@@ -885,40 +888,40 @@
         <v>22</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>21</v>
@@ -929,35 +932,35 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>21</v>
@@ -968,35 +971,35 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>21</v>
@@ -1007,23 +1010,23 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>18</v>
@@ -1032,10 +1035,10 @@
         <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>21</v>
@@ -1046,23 +1049,23 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>18</v>
@@ -1071,10 +1074,10 @@
         <v>18</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>21</v>
@@ -1085,23 +1088,23 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>18</v>
@@ -1110,10 +1113,10 @@
         <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>21</v>
@@ -1124,23 +1127,23 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>18</v>
@@ -1149,13 +1152,13 @@
         <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>22</v>
@@ -1163,23 +1166,23 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>18</v>
@@ -1188,10 +1191,10 @@
         <v>18</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>21</v>
@@ -1202,38 +1205,38 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>22</v>

--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="90">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -226,7 +226,10 @@
     <t xml:space="preserve">21/TO/1234</t>
   </si>
   <si>
-    <t xml:space="preserve">####-##-02</t>
+    <t xml:space="preserve">####-&lt;2-99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">####-&lt;#-01</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.invoice_ZI_3</t>
@@ -235,42 +238,36 @@
     <t xml:space="preserve">XE125432</t>
   </si>
   <si>
+    <t xml:space="preserve">####-&lt;#-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_ZI_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XE125439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">####-&lt;#-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_ZI_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FATT/0123/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">####-&lt;#-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_ZI_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FATT/0124/21</t>
+  </si>
+  <si>
     <t xml:space="preserve">####-&lt;#-20</t>
   </si>
   <si>
-    <t xml:space="preserve">####-&lt;#-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_ZI_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XE125439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">####-&lt;#-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_ZI_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FATT/0123/21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">####-&lt;#-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_ZI_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FATT/0124/21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">####-&lt;#-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">####-&lt;#-11</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.fiscalpos_rc</t>
   </si>
   <si>
@@ -290,9 +287,6 @@
   </si>
   <si>
     <t xml:space="preserve">TI-8778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">####-&lt;2-99</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.fiscalpos_xx</t>
@@ -422,7 +416,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -984,16 +978,16 @@
         <v>67</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>59</v>
@@ -1010,20 +1004,20 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>72</v>
@@ -1104,7 +1098,7 @@
         <v>78</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>18</v>
@@ -1140,10 +1134,10 @@
         <v>80</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>18</v>
@@ -1158,7 +1152,7 @@
         <v>60</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>22</v>
@@ -1166,20 +1160,20 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>81</v>
@@ -1191,7 +1185,7 @@
         <v>18</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>60</v>
@@ -1205,20 +1199,20 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>28</v>
@@ -1236,7 +1230,7 @@
         <v>60</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>22</v>

--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">out_invoice</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.sale</t>
+    <t xml:space="preserve">z0bug.jou_inv</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.fiscalpos_it</t>
@@ -172,6 +172,9 @@
     <t xml:space="preserve">out_refund</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.jou_ncc</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.invoice_Z0_8</t>
   </si>
   <si>
@@ -202,7 +205,7 @@
     <t xml:space="preserve">in_invoice</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.purchase</t>
+    <t xml:space="preserve">z0bug.jou_bill</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.invoice_ZI_1b</t>
@@ -278,6 +281,9 @@
   </si>
   <si>
     <t xml:space="preserve">in_refund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.jou_ncf</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.invoice_ZI_8</t>
@@ -416,7 +422,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -834,7 +840,7 @@
         <v>49</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>21</v>
@@ -845,17 +851,17 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>28</v>
@@ -887,35 +893,35 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>21</v>
@@ -926,35 +932,35 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>21</v>
@@ -965,35 +971,35 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>21</v>
@@ -1004,23 +1010,23 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>18</v>
@@ -1029,10 +1035,10 @@
         <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>21</v>
@@ -1043,23 +1049,23 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>18</v>
@@ -1068,10 +1074,10 @@
         <v>18</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>21</v>
@@ -1082,23 +1088,23 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>18</v>
@@ -1107,10 +1113,10 @@
         <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>21</v>
@@ -1121,23 +1127,23 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>18</v>
@@ -1146,13 +1152,13 @@
         <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>22</v>
@@ -1160,23 +1166,23 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>18</v>
@@ -1185,10 +1191,10 @@
         <v>18</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>21</v>
@@ -1199,17 +1205,17 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>28</v>
@@ -1224,13 +1230,13 @@
         <v>28</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>22</v>

--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="98">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -64,6 +64,9 @@
     <t xml:space="preserve">partner_bank_id</t>
   </si>
   <si>
+    <t xml:space="preserve">payment_term_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.invoice_PY_1</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t xml:space="preserve">base.EUR</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.payment_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.invoice_PY_2</t>
   </si>
   <si>
@@ -100,6 +106,9 @@
     <t xml:space="preserve">Contratto</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.payment_3</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.invoice_Z0_1</t>
   </si>
   <si>
@@ -121,6 +130,9 @@
     <t xml:space="preserve">SO123</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.payment_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.invoice_Z0_3</t>
   </si>
   <si>
@@ -148,6 +160,9 @@
     <t xml:space="preserve">z0bug.bank_company_2</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.payment_5</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.invoice_Z0_5</t>
   </si>
   <si>
@@ -164,6 +179,9 @@
   </si>
   <si>
     <t xml:space="preserve">z0bug.fiscalpos_li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.payment_4</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.invoice_Z0_7</t>
@@ -306,7 +324,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -340,6 +358,19 @@
       <color rgb="FF000000"/>
       <name val="arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -385,7 +416,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -394,11 +425,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -419,10 +458,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
+      <selection pane="topLeft" activeCell="O15" activeCellId="0" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -440,6 +479,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -485,761 +525,816 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>29</v>
+      <c r="O5" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>18</v>
+      <c r="I13" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>18</v>
+        <v>78</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="O15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>18</v>
+        <v>81</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>18</v>
+        <v>87</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>18</v>
+        <v>91</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="108">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -492,11 +492,11 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P18" activeCellId="0" sqref="P18"/>
+      <selection pane="bottomRight" activeCell="O15" activeCellId="0" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1242,7 +1242,9 @@
       <c r="M15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O15" s="5"/>
+      <c r="O15" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">

--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Telefonico</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;1-01-31</t>
+    <t xml:space="preserve">&lt;001-01-31</t>
   </si>
   <si>
     <t xml:space="preserve">\N</t>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">out_invoice</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.jou_inv</t>
+    <t xml:space="preserve">external.FAT|FATT|INV</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.fiscalpos_it</t>
@@ -238,19 +238,19 @@
     <t xml:space="preserve">SAJ/0807</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;2-12-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;2-12-99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;1-01-01</t>
+    <t xml:space="preserve">&lt;002-12-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;002-12-99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;001-01-01</t>
   </si>
   <si>
     <t xml:space="preserve">in_invoice</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.jou_bill</t>
+    <t xml:space="preserve">external.ACQ|FATTU|BILL</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.invoice_ZI_1b</t>
@@ -262,7 +262,7 @@
     <t xml:space="preserve">FATT/1245/19</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;2-12-22</t>
+    <t xml:space="preserve">&lt;002-12-22</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.bank_partner_4</t>
@@ -354,7 +354,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -394,6 +394,13 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -447,7 +454,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -472,6 +479,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,11 +503,11 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O15" activeCellId="0" sqref="O15"/>
+      <selection pane="bottomRight" activeCell="K20" activeCellId="0" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -510,7 +521,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.56"/>
@@ -605,7 +616,7 @@
       <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -659,7 +670,7 @@
       <c r="J3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -668,7 +679,7 @@
       <c r="M3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="6" t="s">
         <v>34</v>
       </c>
       <c r="P3" s="0"/>
@@ -704,7 +715,7 @@
       <c r="J4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -758,7 +769,7 @@
       <c r="J5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -770,7 +781,7 @@
       <c r="N5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="6" t="s">
         <v>41</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -812,7 +823,7 @@
       <c r="J6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -866,7 +877,7 @@
       <c r="J7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -878,7 +889,7 @@
       <c r="N7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="6" t="s">
         <v>53</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -920,7 +931,7 @@
       <c r="J8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="2" t="s">
@@ -959,7 +970,7 @@
       <c r="J9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -968,7 +979,7 @@
       <c r="M9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="6" t="s">
         <v>62</v>
       </c>
       <c r="P9" s="0"/>
@@ -1050,7 +1061,7 @@
       <c r="J11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L11" s="2" t="s">
@@ -1101,7 +1112,7 @@
       <c r="J12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="5" t="s">
         <v>76</v>
       </c>
       <c r="L12" s="2" t="s">
@@ -1110,7 +1121,7 @@
       <c r="M12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1143,7 +1154,7 @@
       <c r="J13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="5" t="s">
         <v>76</v>
       </c>
       <c r="L13" s="2" t="s">
@@ -1152,7 +1163,7 @@
       <c r="M13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="6" t="s">
         <v>41</v>
       </c>
       <c r="P13" s="1" t="s">
@@ -1191,7 +1202,7 @@
       <c r="J14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="5" t="s">
         <v>76</v>
       </c>
       <c r="L14" s="2" t="s">
@@ -1200,7 +1211,7 @@
       <c r="M14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1233,7 +1244,7 @@
       <c r="J15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="5" t="s">
         <v>76</v>
       </c>
       <c r="L15" s="2" t="s">
@@ -1242,7 +1253,7 @@
       <c r="M15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1275,7 +1286,7 @@
       <c r="J16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="5" t="s">
         <v>76</v>
       </c>
       <c r="L16" s="2" t="s">
@@ -1284,7 +1295,7 @@
       <c r="M16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1317,7 +1328,7 @@
       <c r="J17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="5" t="s">
         <v>76</v>
       </c>
       <c r="L17" s="2" t="s">
@@ -1326,7 +1337,7 @@
       <c r="M17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="6" t="s">
         <v>41</v>
       </c>
       <c r="P17" s="1" t="s">
@@ -1365,7 +1376,7 @@
       <c r="J18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="5" t="s">
         <v>76</v>
       </c>
       <c r="L18" s="2" t="s">
@@ -1374,7 +1385,7 @@
       <c r="M18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="O18" s="6" t="s">
         <v>41</v>
       </c>
       <c r="P18" s="1" t="s">
@@ -1422,7 +1433,7 @@
       <c r="M19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="O19" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1455,7 +1466,7 @@
       <c r="J20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="5" t="s">
         <v>76</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -1464,7 +1475,7 @@
       <c r="M20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="O20" s="6" t="s">
         <v>62</v>
       </c>
     </row>

--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="114">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t xml:space="preserve">TI-8778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">####-&lt;#-27</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.fiscalpos_xx</t>
@@ -529,11 +532,11 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="S21" activeCellId="0" sqref="S21"/>
+      <selection pane="bottomRight" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1485,7 +1488,7 @@
         <v>107</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>38</v>
@@ -1503,7 +1506,7 @@
         <v>77</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>27</v>
@@ -1517,20 +1520,20 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>38</v>
@@ -1539,7 +1542,7 @@
         <v>23</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>76</v>

--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="119">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -362,6 +362,21 @@
   </si>
   <si>
     <t xml:space="preserve">DE/22/9876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_ZI_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH/22/0626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">####-##-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.USD</t>
   </si>
 </sst>
 </file>
@@ -529,14 +544,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F21" activeCellId="0" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1563,6 +1578,53 @@
         <v>1</v>
       </c>
     </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S22" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
